--- a/Ref_Shooting_Game/ShootingGame_.xlsx
+++ b/Ref_Shooting_Game/ShootingGame_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHeonNoePung\OneDrive\바탕 화면\Ref_Game\Ref_Shooting_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{172D05D9-0A4D-4688-B2AB-CED4034D0277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F2D6F-4D8A-46A2-868B-2D1024E77CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC472F0C-8D6B-4DE5-BE11-5751AB8AD546}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,46 @@
   </si>
   <si>
     <t>생성자, Bullet의 위치와 Velocity를 필요로함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체의 체력값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHealth()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetHealth()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체의 체력값을 얻어온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체의 체력값을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enomy_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 공격을 담당하는 스레드(1초마다 공격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPVOID (EnomyBase)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -954,13 +994,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,188 +1035,212 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACCBF14-9C20-4E2C-A3E6-E82D01AA4430}">
-  <dimension ref="B3:I46"/>
+  <dimension ref="B3:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1529,585 +1606,617 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41" t="s">
+    <row r="14" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="75"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F16" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="65"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24" t="s">
+    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="65"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="52"/>
-    </row>
     <row r="19" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="52"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="65"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="66"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="23"/>
+      <c r="C24" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="59"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="37"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="43" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="64"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G32" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H32" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="23"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="52"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="37"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="58"/>
-    </row>
-    <row r="39" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="63"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="64"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="52"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C40" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D40" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E40" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F40" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G40" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="46" t="s">
+      <c r="H40" s="44"/>
+      <c r="I40" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="67" t="s">
+    <row r="41" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="63"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G41" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H41" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="11" t="s">
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53" t="s">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="63"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G43" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="52" t="s">
+      <c r="H43" s="49"/>
+      <c r="I43" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="52"/>
-    </row>
     <row r="44" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="52"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="52"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="37"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="58"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="47"/>
+    </row>
+    <row r="46" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="63"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="47"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="64"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B5:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ref_Shooting_Game/ShootingGame_.xlsx
+++ b/Ref_Shooting_Game/ShootingGame_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHeonNoePung\OneDrive\바탕 화면\Ref_Game\Ref_Shooting_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이태양\source\repos\Ref_Shooting_Game\Ref_Shooting_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F2D6F-4D8A-46A2-868B-2D1024E77CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD1A788-970A-4EA4-A1DC-F8A38B73E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC472F0C-8D6B-4DE5-BE11-5751AB8AD546}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,15 +355,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enomy_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적의 공격을 담당하는 스레드(1초마다 공격)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LPVOID (EnomyBase)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_KeyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetKeyCode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity 끼리 구별하는 코드, Entitiys에서 entity를 찾기위한키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyCode 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동을 담당하는 스레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 목숨 / 체력을 모두 소모하면 목숨 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDamages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health를 1깎고 만약 0이 됐을경우 Life감소&amp;Healt = 5 &amp; 처음위치로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,19 +692,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -745,18 +796,206 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -766,48 +1005,46 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -815,177 +1052,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -995,14 +1061,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1013,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,13 +1092,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,16 +1104,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1065,10 +1125,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,10 +1140,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1092,61 +1152,52 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,10 +1209,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,74 +1224,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACCBF14-9C20-4E2C-A3E6-E82D01AA4430}">
-  <dimension ref="B3:I47"/>
+  <dimension ref="B3:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1631,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1589,16 +1640,16 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1606,614 +1657,687 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="75"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71" t="s">
+    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="H15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="73" t="s">
+    </row>
+    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="54"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="75" t="s">
+      <c r="I16" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F17" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="56"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
+    <row r="19" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="56"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="21" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-    </row>
     <row r="20" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="66"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="56"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="57"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C25" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D25" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E25" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22" t="s">
+      <c r="H25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="64"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="42"/>
+    </row>
+    <row r="32" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="54"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="63"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="21"/>
+      <c r="I33" s="37"/>
     </row>
     <row r="34" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="63"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="21"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="47"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="47"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="47"/>
+      <c r="B37" s="53"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="64"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="62" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="53"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="54"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="47"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D41" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F41" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G41" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="42" t="s">
+      <c r="H41" s="39"/>
+      <c r="I41" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="63"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="61" t="s">
+    <row r="42" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="53"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="63"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="10" t="s">
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="53"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="63"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48" t="s">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="53"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G44" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="47" t="s">
+      <c r="H44" s="44"/>
+      <c r="I44" s="42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B44" s="63"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="47"/>
-    </row>
     <row r="45" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="47"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="64"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="42"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="54"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B5:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
